--- a/batch 4 test scenario.xlsx
+++ b/batch 4 test scenario.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmaturi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisharma\Desktop\New folder\project\Final Flash\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="124">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Functional Testing</t>
   </si>
   <si>
-    <t>Verification of log in button</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
   </si>
   <si>
     <t>Analyst</t>
-  </si>
-  <si>
-    <t>TS_Admin_login_001</t>
-  </si>
-  <si>
-    <t>Integration testing</t>
   </si>
   <si>
     <t>Integration Testing</t>
@@ -105,23 +96,12 @@
 4..To validate input for valid user name and invalid password for Admin.</t>
   </si>
   <si>
-    <t>Verification of register button with data base conectivity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.To validate behaviour of the register button to check whether the database is connected
-2.To validate behaviour of the register button to check whether the database is not connected </t>
-  </si>
-  <si>
     <t>Verification of functioning of login button and displaying home page</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">1.To validate behaviour of the login button to check whether the database is connected
-2.To validate behaviour of the login button to check whether the database is not connected </t>
-  </si>
-  <si>
     <t>Verification of admin log in button</t>
   </si>
   <si>
@@ -137,72 +117,18 @@
     <t>Web security testing</t>
   </si>
   <si>
-    <t>REQ_webpage_001</t>
-  </si>
-  <si>
     <t>Recovery Testing</t>
   </si>
   <si>
     <t>TS_Admin_login_002</t>
   </si>
   <si>
-    <t>REQ_lnterface_008</t>
-  </si>
-  <si>
-    <t>REQ_resp_014</t>
-  </si>
-  <si>
     <t>Verification of performance of log in button</t>
   </si>
   <si>
-    <r>
-      <t>Verification of performance of log in b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tton</t>
-    </r>
-  </si>
-  <si>
-    <t>performance Testing</t>
-  </si>
-  <si>
-    <t>REQ_adminlogin_003</t>
-  </si>
-  <si>
     <t>Availability testing</t>
   </si>
   <si>
-    <t>REQ_reg_005</t>
-  </si>
-  <si>
-    <t>REQ_login_007</t>
-  </si>
-  <si>
-    <t>REQ_lnterface_009</t>
-  </si>
-  <si>
-    <t>REQ_resp_015</t>
-  </si>
-  <si>
-    <t>REQ_lnterface_016</t>
-  </si>
-  <si>
     <t>REQ_recovery_018</t>
   </si>
   <si>
@@ -221,9 +147,6 @@
     <t>integration Testing</t>
   </si>
   <si>
-    <t>verfication of maximum numbers can access at a time  for Online Survey home page</t>
-  </si>
-  <si>
     <t>stress testing</t>
   </si>
   <si>
@@ -236,9 +159,6 @@
     <t>1.To validate the maximum number of users this application can handled.</t>
   </si>
   <si>
-    <t>19/05/2018</t>
-  </si>
-  <si>
     <t>Batch no 4</t>
   </si>
   <si>
@@ -246,9 +166,6 @@
   </si>
   <si>
     <t>PRJ_RecruitmentManagaementSystem_001</t>
-  </si>
-  <si>
-    <t>Batch no 5</t>
   </si>
   <si>
     <t>TS_Candidate_login_001</t>
@@ -294,38 +211,14 @@
     <t>Verification availability of candidate and company user information</t>
   </si>
   <si>
-    <t>TS_Register_004</t>
-  </si>
-  <si>
     <t>1.To validate the performance of the login button when response time is 2  seconds.</t>
-  </si>
-  <si>
-    <t>TS_Candidate_login_006</t>
   </si>
   <si>
     <t xml:space="preserve">1.To validate whether the candidate  reached to candidate home page.
 </t>
   </si>
   <si>
-    <t>TS_candidate_login_007</t>
-  </si>
-  <si>
-    <t>TS_Candidate login_008</t>
-  </si>
-  <si>
-    <t>TS_Company login_013</t>
-  </si>
-  <si>
-    <t>TS_Company login_014</t>
-  </si>
-  <si>
-    <t>TS_Company_login_0015</t>
-  </si>
-  <si>
     <t>Verification of Company web page recovery</t>
-  </si>
-  <si>
-    <t>TS_Company_0017</t>
   </si>
   <si>
     <t xml:space="preserve">1. To validate input for  valid   full name,valid  email address,valid  phone number and password
@@ -337,9 +230,6 @@
   </si>
   <si>
     <t>TS_User_qualification_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verification of </t>
   </si>
   <si>
     <t>Verification of highest qualification,sepcialisation area,college name ,university name,year of passing ,percentage,university registration number,photo format,resume format</t>
@@ -501,11 +391,75 @@
   <si>
     <t>REQ_PlacementReport_011</t>
   </si>
+  <si>
+    <t>Verification of website from external malware or any hackers</t>
+  </si>
+  <si>
+    <t>TS_Information_017</t>
+  </si>
+  <si>
+    <t>TS_Security_016</t>
+  </si>
+  <si>
+    <t>REQ_webpage_012</t>
+  </si>
+  <si>
+    <t>REQ_information_013</t>
+  </si>
+  <si>
+    <t>TS_login_018</t>
+  </si>
+  <si>
+    <t>REQ_login_014</t>
+  </si>
+  <si>
+    <t>TS_login_019</t>
+  </si>
+  <si>
+    <t>TS_login_020</t>
+  </si>
+  <si>
+    <t>TS_website_021</t>
+  </si>
+  <si>
+    <t>TS_software_022</t>
+  </si>
+  <si>
+    <t>TS_software_023</t>
+  </si>
+  <si>
+    <t>TS_User_024</t>
+  </si>
+  <si>
+    <t>REQ_Jobs_021</t>
+  </si>
+  <si>
+    <t>Verification of maximum number of jobs a user a can apply at a time</t>
+  </si>
+  <si>
+    <t>Boundary value analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification of placement report page </t>
+  </si>
+  <si>
+    <t>1.To validate the Report Generated By Admin about Individual Placed in the particular month with all valid inputs.
+2.To validate the Report Generated By Admin about Individual Placed in the particular company with all Valid inputs.
+3.To validate the Report Generated By Admin about Individual Placed in the particular designation with all Valid inputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.To validate the Boundary value of applying Jobs of  an Individual User. Individual User can apply maximum of 5 jobs.
+2.To validate the Boundary value of applying Jobs of  an Individual User. Individual User can apply maximum of 5 jobs.
+</t>
+  </si>
+  <si>
+    <t>verfication of maximum numbers can access at a time  for On home page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
@@ -686,14 +640,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -754,9 +705,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,9 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,14 +722,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -841,7 +792,7 @@
         <xdr:cNvPr id="2" name="Picture 2" descr="pcs">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +866,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,6 +994,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1078,6 +1046,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1262,80 +1247,80 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
-    <col min="6" max="22" width="10.28515625" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="10.28515625" style="4"/>
+    <col min="1" max="1" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
+    <col min="6" max="22" width="10.28515625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="10.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="11" customFormat="1" ht="23.25">
+    <row r="4" spans="2:4" s="10" customFormat="1" ht="23.25">
       <c r="B4" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="2:4" s="9" customFormat="1" ht="15.75">
-      <c r="C5" s="10"/>
+    <row r="5" spans="2:4" s="8" customFormat="1" ht="15.75">
+      <c r="C5" s="9"/>
     </row>
     <row r="7" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>10</v>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D7" s="35"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>9</v>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D8" s="35"/>
     </row>
     <row r="10" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="14.25">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="14.25">
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="2:4" ht="14.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1354,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W45"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1372,199 +1357,197 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="2" spans="2:23" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:23" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" spans="2:23" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="2:23" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="2:23" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="2:23" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="2:23" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="2:23" s="3" customFormat="1" ht="14.25">
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" s="3" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="2:23" s="4" customFormat="1" ht="14.25">
-      <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="2:23" s="4" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="2:23" s="4" customFormat="1" ht="14.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="9" spans="2:23" s="18" customFormat="1" ht="18.75">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" s="3" customFormat="1" ht="14.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="9" spans="2:23" s="17" customFormat="1" ht="18.75">
       <c r="B9" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -1573,652 +1556,551 @@
       <c r="G9" s="36"/>
     </row>
     <row r="10" spans="2:23" ht="8.25" customHeight="1"/>
-    <row r="11" spans="2:23" s="17" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:23" s="16" customFormat="1" ht="61.5" customHeight="1">
+      <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" s="29" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B12" s="24" t="s">
+    </row>
+    <row r="12" spans="2:23" s="26" customFormat="1" ht="61.5" customHeight="1">
+      <c r="B12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>4</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" s="26" customFormat="1" ht="61.5" customHeight="1">
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="20">
+        <v>4</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" s="26" customFormat="1" ht="61.5" customHeight="1">
+      <c r="B14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" s="26" customFormat="1" ht="180">
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20">
+        <v>5</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" s="26" customFormat="1" ht="180">
+      <c r="B16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20">
+        <v>5</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" s="26" customFormat="1" ht="281.25" customHeight="1">
+      <c r="B17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="20">
+        <v>6</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="2:11" s="26" customFormat="1" ht="120">
+      <c r="B18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20">
+        <v>4</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="2:11" s="26" customFormat="1" ht="270">
+      <c r="B19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="21">
-        <v>4</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F19" s="20">
+        <v>6</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" s="29" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B13" s="24" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="2:11" s="26" customFormat="1" ht="409.5">
+      <c r="B20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="20">
+        <v>11</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:11" s="26" customFormat="1" ht="405">
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20">
+        <v>9</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="2:11" s="26" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="2:11" s="26" customFormat="1" ht="30">
+      <c r="B23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="2:11" s="26" customFormat="1" ht="60">
+      <c r="B24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="2:11" s="26" customFormat="1" ht="30">
+      <c r="B25" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="2:11" s="26" customFormat="1" ht="90">
+      <c r="B26" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20">
+        <v>3</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="2:11" s="16" customFormat="1" ht="68.25" customHeight="1">
+      <c r="B27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="16" customFormat="1" ht="30">
+      <c r="B28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="16" customFormat="1">
+      <c r="B29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="80.25" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="30">
+      <c r="B31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="30">
+      <c r="B34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="75">
+      <c r="B35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="21">
-        <v>4</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" s="29" customFormat="1" ht="61.5" customHeight="1">
-      <c r="B14" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="21">
-        <v>4</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" s="29" customFormat="1" ht="180">
-      <c r="B15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21">
-        <v>5</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" s="29" customFormat="1" ht="180">
-      <c r="B16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="21">
-        <v>5</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="2:11" s="29" customFormat="1" ht="281.25" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>6</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="2:11" s="29" customFormat="1" ht="120">
-      <c r="B18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="21">
-        <v>4</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="2:11" s="29" customFormat="1" ht="270">
-      <c r="B19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21">
-        <v>6</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="2:11" s="29" customFormat="1" ht="409.5">
-      <c r="B20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="21">
-        <v>11</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="2:11" s="29" customFormat="1" ht="405">
-      <c r="B21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="21">
-        <v>9</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="2:11" s="29" customFormat="1">
-      <c r="B22" s="2" t="s">
+      <c r="G35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="21">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="2:11" s="29" customFormat="1" ht="30">
-      <c r="B23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="21">
-        <v>2</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="2:11" s="29" customFormat="1" ht="60">
-      <c r="B24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="21">
-        <v>2</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="2:11" s="29" customFormat="1" ht="30">
-      <c r="B25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="21">
-        <v>2</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="2:11" s="29" customFormat="1">
-      <c r="B26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="2:11" s="17" customFormat="1" ht="68.25" customHeight="1">
-      <c r="B27" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="28">
-        <v>1</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="17" customFormat="1" ht="30">
-      <c r="B28" s="24"/>
-      <c r="C28" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="21">
-        <v>1</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="17" customFormat="1">
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:11" ht="80.25" customHeight="1">
-      <c r="B30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="21">
-        <v>2</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="2:11" ht="61.5" customHeight="1">
-      <c r="B32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="12">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="61.5" customHeight="1">
-      <c r="B33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="12">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="30">
-      <c r="B34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="12">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="2:7" ht="30">
-      <c r="B39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="12">
-        <v>3</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="45">
-      <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="12">
-        <v>2</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="30.75" customHeight="1">
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="12">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="26">
-        <v>1</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="C44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="12">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="30">
-      <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="26">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    </row>
+    <row r="37" spans="2:7" ht="30.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B9:G9"/>
